--- a/paper_results/comparing_policies/summary.xlsx
+++ b/paper_results/comparing_policies/summary.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\extra\adp\adpver2\paper_results\comparing_policies\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="20115" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>meanReward</t>
   </si>
@@ -75,11 +80,14 @@
   <si>
     <t>FTC (org slopes)</t>
   </si>
+  <si>
+    <t>pen-level</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -558,10 +566,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -613,6 +622,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -660,7 +672,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -693,9 +705,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -728,6 +757,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -904,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2310,7 +2356,129 @@
         <v>9.7492163999999995E-4</v>
       </c>
     </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>1745.4</v>
+      </c>
+      <c r="B36" s="3">
+        <v>70.192300000000003</v>
+      </c>
+      <c r="C36" s="2">
+        <v>13801.1</v>
+      </c>
+      <c r="D36" s="3">
+        <v>58.397199999999998</v>
+      </c>
+      <c r="E36" s="3">
+        <v>89.039400000000001</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.23132800000000001</v>
+      </c>
+      <c r="G36" s="2">
+        <v>34.49</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.83478699999999995</v>
+      </c>
+      <c r="I36" s="3">
+        <v>10.706799999999999</v>
+      </c>
+      <c r="J36" s="2">
+        <v>7.9453899999999994E-2</v>
+      </c>
+      <c r="K36" s="2">
+        <v>89.32</v>
+      </c>
+      <c r="L36" s="3">
+        <v>5.0068200000000003</v>
+      </c>
+      <c r="M36" s="2">
+        <v>12707.7</v>
+      </c>
+      <c r="N36" s="3">
+        <v>185.50800000000001</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0.69612099999999999</v>
+      </c>
+      <c r="P36" s="2">
+        <v>3.9516299999999997E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f>0.196 * A36</f>
+        <v>342.09840000000003</v>
+      </c>
+      <c r="B37" s="2">
+        <f t="shared" ref="B37:P37" si="11">0.196 * B36</f>
+        <v>13.757690800000001</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="11"/>
+        <v>2705.0156000000002</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="11"/>
+        <v>11.4458512</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="11"/>
+        <v>17.451722400000001</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="11"/>
+        <v>4.5340287999999999E-2</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="11"/>
+        <v>6.7600400000000009</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="11"/>
+        <v>0.16361825199999999</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="11"/>
+        <v>2.0985328000000001</v>
+      </c>
+      <c r="J37" s="2">
+        <f t="shared" si="11"/>
+        <v>1.55729644E-2</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="11"/>
+        <v>17.506719999999998</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="11"/>
+        <v>0.98133672000000005</v>
+      </c>
+      <c r="M37" s="2">
+        <f t="shared" si="11"/>
+        <v>2490.7092000000002</v>
+      </c>
+      <c r="N37" s="2">
+        <f t="shared" si="11"/>
+        <v>36.359568000000003</v>
+      </c>
+      <c r="O37" s="2">
+        <f t="shared" si="11"/>
+        <v>0.13643971600000002</v>
+      </c>
+      <c r="P37" s="2">
+        <f t="shared" si="11"/>
+        <v>7.7451947999999998E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/paper_results/comparing_policies/summary.xlsx
+++ b/paper_results/comparing_policies/summary.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>meanReward</t>
   </si>
@@ -82,6 +82,27 @@
   </si>
   <si>
     <t>pen-level</t>
+  </si>
+  <si>
+    <t>all_in_all_out 9</t>
+  </si>
+  <si>
+    <t>all_in_all_out 10</t>
+  </si>
+  <si>
+    <t>all_in_all_out 11</t>
+  </si>
+  <si>
+    <t>all_in_all_out 12</t>
+  </si>
+  <si>
+    <t>all_in_all_out 13</t>
+  </si>
+  <si>
+    <t>all_in_all_out 14</t>
+  </si>
+  <si>
+    <t>all_in_all_out 15</t>
   </si>
 </sst>
 </file>
@@ -954,12 +975,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N37" sqref="N37"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
@@ -1147,8 +1168,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>9</v>
+      <c r="A5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1268,8 +1289,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>10</v>
+      <c r="A8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -1389,8 +1410,8 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>11</v>
+      <c r="A11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1510,8 +1531,8 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
+      <c r="A14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -1631,8 +1652,8 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>13</v>
+      <c r="A17" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1752,8 +1773,8 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>14</v>
+      <c r="A20" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -1873,8 +1894,8 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>15</v>
+      <c r="A23" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">

--- a/paper_results/comparing_policies/summary.xlsx
+++ b/paper_results/comparing_policies/summary.xlsx
@@ -974,8 +974,8 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,70 +1102,21 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f>0.196 * A3</f>
-        <v>406.17667999999998</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" ref="B4:P4" si="0">0.196 * B3</f>
-        <v>45.501007999999999</v>
-      </c>
-      <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>2605.6828</v>
-      </c>
-      <c r="D4" s="2">
-        <f t="shared" si="0"/>
-        <v>8.5556155999999994</v>
-      </c>
-      <c r="E4" s="2">
-        <f t="shared" si="0"/>
-        <v>17.980981200000002</v>
-      </c>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.8409023999999998E-2</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="0"/>
-        <v>5.9799600000000002</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14066332000000001</v>
-      </c>
-      <c r="I4" s="2">
-        <f t="shared" si="0"/>
-        <v>2.3143484000000001</v>
-      </c>
-      <c r="J4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.69191512E-2</v>
-      </c>
-      <c r="K4" s="2">
-        <f t="shared" si="0"/>
-        <v>14.458919999999999</v>
-      </c>
-      <c r="L4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.0731215599999999</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" si="0"/>
-        <v>2246.9047999999998</v>
-      </c>
-      <c r="N4" s="2">
-        <f t="shared" si="0"/>
-        <v>36.912484000000006</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" si="0"/>
-        <v>0.14935944800000001</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" si="0"/>
-        <v>1.09637108E-2</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1223,70 +1174,22 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <f>0.196 * A6</f>
-        <v>92.195459999999997</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" ref="B7:P7" si="1">0.196 * B6</f>
-        <v>11.987928400000001</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="1"/>
-        <v>3013.5783999999999</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>6.1268228000000002</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
-        <v>16.840065200000002</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="1"/>
-        <v>3.6750392E-2</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="1"/>
-        <v>7.6440000000000001</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="1"/>
-        <v>1.764</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="1"/>
-        <v>16.464000000000002</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="1"/>
-        <v>2963.52</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.17209760399999999</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1344,70 +1247,22 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <f>0.196 * A9</f>
-        <v>274.20008000000001</v>
-      </c>
-      <c r="B10" s="2">
-        <f t="shared" ref="B10:P10" si="2">0.196 * B9</f>
-        <v>10.307718400000001</v>
-      </c>
-      <c r="C10" s="2">
-        <f t="shared" si="2"/>
-        <v>3126.0628000000002</v>
-      </c>
-      <c r="D10" s="2">
-        <f t="shared" si="2"/>
-        <v>7.2341248</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="2"/>
-        <v>18.118063599999999</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="2"/>
-        <v>4.6264036000000001E-2</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="2"/>
-        <v>7.056</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="2"/>
-        <v>1.96</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="2"/>
-        <v>14.112</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="2"/>
-        <v>2540.1600000000003</v>
-      </c>
-      <c r="N10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" si="2"/>
-        <v>0.17209760399999999</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1465,70 +1320,22 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <f>0.196 * A12</f>
-        <v>358.89168000000001</v>
-      </c>
-      <c r="B13" s="2">
-        <f t="shared" ref="B13:P13" si="3">0.196 * B12</f>
-        <v>7.6697740000000012</v>
-      </c>
-      <c r="C13" s="2">
-        <f t="shared" si="3"/>
-        <v>3201.2876000000001</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="3"/>
-        <v>7.3340652000000004</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="3"/>
-        <v>19.399002000000003</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="3"/>
-        <v>4.6744236000000002E-2</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="3"/>
-        <v>6.468</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <f t="shared" si="3"/>
-        <v>2.1560000000000001</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <f t="shared" si="3"/>
-        <v>12.936</v>
-      </c>
-      <c r="L13" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
-        <f t="shared" si="3"/>
-        <v>2328.48</v>
-      </c>
-      <c r="N13" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" si="3"/>
-        <v>0.17209760399999999</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1586,70 +1393,22 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <f>0.196 * A15</f>
-        <v>368.84064000000001</v>
-      </c>
-      <c r="B16" s="2">
-        <f t="shared" ref="B16:P16" si="4">0.196 * B15</f>
-        <v>6.7293463999999998</v>
-      </c>
-      <c r="C16" s="2">
-        <f t="shared" si="4"/>
-        <v>3282.4512000000004</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="4"/>
-        <v>8.903064800000001</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="4"/>
-        <v>20.686820000000001</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="4"/>
-        <v>6.4153152000000005E-2</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="4"/>
-        <v>5.88</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <f t="shared" si="4"/>
-        <v>2.3520000000000003</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="4"/>
-        <v>11.76</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="4"/>
-        <v>2116.8000000000002</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" si="4"/>
-        <v>0.17209760399999999</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1707,70 +1466,22 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <f>0.196 * A18</f>
-        <v>329.21140000000003</v>
-      </c>
-      <c r="B19" s="2">
-        <f t="shared" ref="B19:P19" si="5">0.196 * B18</f>
-        <v>4.6267956000000003</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="5"/>
-        <v>3369.5144000000005</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="5"/>
-        <v>9.2351280000000013</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="5"/>
-        <v>21.965720000000001</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="5"/>
-        <v>6.586011600000001E-2</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="5"/>
-        <v>5.2919999999999998</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <f t="shared" si="5"/>
-        <v>2.548</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <f t="shared" si="5"/>
-        <v>10.584</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="5"/>
-        <v>1905.1200000000001</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="2">
-        <f t="shared" si="5"/>
-        <v>0.17209760399999999</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1828,70 +1539,22 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <f>0.196 * A21</f>
-        <v>267.55763999999999</v>
-      </c>
-      <c r="B22" s="2">
-        <f t="shared" ref="B22:P22" si="6">0.196 * B21</f>
-        <v>4.0775839999999999</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="6"/>
-        <v>3414.0848000000001</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" si="6"/>
-        <v>10.7605176</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" si="6"/>
-        <v>23.252264</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="6"/>
-        <v>7.5632480000000002E-2</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="6"/>
-        <v>5.2919999999999998</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="2">
-        <f t="shared" si="6"/>
-        <v>2.7440000000000002</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="6"/>
-        <v>10.584</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" si="6"/>
-        <v>1905.1200000000001</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="2">
-        <f t="shared" si="6"/>
-        <v>0.17209760399999999</v>
-      </c>
-      <c r="P22" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1949,70 +1612,22 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <f>0.196 * A24</f>
-        <v>198.89884000000001</v>
-      </c>
-      <c r="B25" s="2">
-        <f t="shared" ref="B25:P25" si="7">0.196 * B24</f>
-        <v>3.9035556000000002</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="7"/>
-        <v>3483.8804000000005</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="7"/>
-        <v>10.106210800000001</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="7"/>
-        <v>24.541356</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="7"/>
-        <v>7.6096999999999998E-2</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="7"/>
-        <v>4.7040000000000006</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="2">
-        <f t="shared" si="7"/>
-        <v>2.94</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="7"/>
-        <v>9.4080000000000013</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <f t="shared" si="7"/>
-        <v>1693.44</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
-        <f t="shared" si="7"/>
-        <v>0.17209760399999999</v>
-      </c>
-      <c r="P25" s="2">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2070,70 +1685,22 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <f>0.196 * A27</f>
-        <v>211.46244000000002</v>
-      </c>
-      <c r="B28" s="2">
-        <f t="shared" ref="B28:P28" si="8">0.196 * B27</f>
-        <v>11.180722000000001</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" si="8"/>
-        <v>2735.67</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" si="8"/>
-        <v>6.0960116000000006</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" si="8"/>
-        <v>16.848003200000001</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="8"/>
-        <v>4.1404804000000003E-2</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="8"/>
-        <v>7.056</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="8"/>
-        <v>1.96</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="8"/>
-        <v>16.464000000000002</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="8"/>
-        <v>2540.1600000000003</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="2">
-        <f t="shared" si="8"/>
-        <v>0.14751214800000001</v>
-      </c>
-      <c r="P28" s="2">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2191,70 +1758,22 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <f>0.196 * A30</f>
-        <v>283.58652000000001</v>
-      </c>
-      <c r="B31" s="2">
-        <f t="shared" ref="B31:P31" si="9">0.196 * B30</f>
-        <v>99.946476000000004</v>
-      </c>
-      <c r="C31" s="2">
-        <f t="shared" si="9"/>
-        <v>2732.0832</v>
-      </c>
-      <c r="D31" s="2">
-        <f t="shared" si="9"/>
-        <v>18.381958000000001</v>
-      </c>
-      <c r="E31" s="2">
-        <f t="shared" si="9"/>
-        <v>17.655856400000001</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="9"/>
-        <v>4.5493756000000003E-2</v>
-      </c>
-      <c r="G31" s="2">
-        <f t="shared" si="9"/>
-        <v>6.6855599999999997</v>
-      </c>
-      <c r="H31" s="2">
-        <f t="shared" si="9"/>
-        <v>6.7638816000000004E-2</v>
-      </c>
-      <c r="I31" s="2">
-        <f t="shared" si="9"/>
-        <v>2.1343224000000003</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="9"/>
-        <v>1.7892742E-2</v>
-      </c>
-      <c r="K31" s="2">
-        <f t="shared" si="9"/>
-        <v>13.39268</v>
-      </c>
-      <c r="L31" s="2">
-        <f t="shared" si="9"/>
-        <v>0.17185377999999998</v>
-      </c>
-      <c r="M31" s="2">
-        <f t="shared" si="9"/>
-        <v>2420.306</v>
-      </c>
-      <c r="N31" s="2">
-        <f t="shared" si="9"/>
-        <v>26.546828000000005</v>
-      </c>
-      <c r="O31" s="2">
-        <f t="shared" si="9"/>
-        <v>0.172791836</v>
-      </c>
-      <c r="P31" s="2">
-        <f t="shared" si="9"/>
-        <v>1.0858008000000001E-3</v>
-      </c>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2312,70 +1831,22 @@
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <f>0.196 * A33</f>
-        <v>358.76624000000004</v>
-      </c>
-      <c r="B34" s="2">
-        <f t="shared" ref="B34:P34" si="10">0.196 * B33</f>
-        <v>103.48956800000001</v>
-      </c>
-      <c r="C34" s="2">
-        <f t="shared" si="10"/>
-        <v>2626.9684000000002</v>
-      </c>
-      <c r="D34" s="2">
-        <f t="shared" si="10"/>
-        <v>47.284412000000003</v>
-      </c>
-      <c r="E34" s="2">
-        <f t="shared" si="10"/>
-        <v>17.8833144</v>
-      </c>
-      <c r="F34" s="2">
-        <f t="shared" si="10"/>
-        <v>9.2248184000000011E-2</v>
-      </c>
-      <c r="G34" s="2">
-        <f t="shared" si="10"/>
-        <v>6.1348000000000003</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="10"/>
-        <v>0.28749280000000005</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" si="10"/>
-        <v>2.2840859999999998</v>
-      </c>
-      <c r="J34" s="2">
-        <f t="shared" si="10"/>
-        <v>6.9922804000000005E-2</v>
-      </c>
-      <c r="K34" s="2">
-        <f t="shared" si="10"/>
-        <v>12.48128</v>
-      </c>
-      <c r="L34" s="2">
-        <f t="shared" si="10"/>
-        <v>0.54511127999999998</v>
-      </c>
-      <c r="M34" s="2">
-        <f t="shared" si="10"/>
-        <v>2259.6056000000003</v>
-      </c>
-      <c r="N34" s="2">
-        <f t="shared" si="10"/>
-        <v>96.927880000000002</v>
-      </c>
-      <c r="O34" s="2">
-        <f t="shared" si="10"/>
-        <v>0.17309896800000002</v>
-      </c>
-      <c r="P34" s="2">
-        <f t="shared" si="10"/>
-        <v>9.7492163999999995E-4</v>
-      </c>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -2433,70 +1904,22 @@
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <f>0.196 * A36</f>
-        <v>342.09840000000003</v>
-      </c>
-      <c r="B37" s="2">
-        <f t="shared" ref="B37:P37" si="11">0.196 * B36</f>
-        <v>13.757690800000001</v>
-      </c>
-      <c r="C37" s="2">
-        <f t="shared" si="11"/>
-        <v>2705.0156000000002</v>
-      </c>
-      <c r="D37" s="2">
-        <f t="shared" si="11"/>
-        <v>11.4458512</v>
-      </c>
-      <c r="E37" s="2">
-        <f t="shared" si="11"/>
-        <v>17.451722400000001</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="11"/>
-        <v>4.5340287999999999E-2</v>
-      </c>
-      <c r="G37" s="2">
-        <f t="shared" si="11"/>
-        <v>6.7600400000000009</v>
-      </c>
-      <c r="H37" s="2">
-        <f t="shared" si="11"/>
-        <v>0.16361825199999999</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="11"/>
-        <v>2.0985328000000001</v>
-      </c>
-      <c r="J37" s="2">
-        <f t="shared" si="11"/>
-        <v>1.55729644E-2</v>
-      </c>
-      <c r="K37" s="2">
-        <f t="shared" si="11"/>
-        <v>17.506719999999998</v>
-      </c>
-      <c r="L37" s="2">
-        <f t="shared" si="11"/>
-        <v>0.98133672000000005</v>
-      </c>
-      <c r="M37" s="2">
-        <f t="shared" si="11"/>
-        <v>2490.7092000000002</v>
-      </c>
-      <c r="N37" s="2">
-        <f t="shared" si="11"/>
-        <v>36.359568000000003</v>
-      </c>
-      <c r="O37" s="2">
-        <f t="shared" si="11"/>
-        <v>0.13643971600000002</v>
-      </c>
-      <c r="P37" s="2">
-        <f t="shared" si="11"/>
-        <v>7.7451947999999998E-3</v>
-      </c>
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
